--- a/biology/Botanique/Tillandsia_arhiza/Tillandsia_arhiza.xlsx
+++ b/biology/Botanique/Tillandsia_arhiza/Tillandsia_arhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia arhiza est une espèce de plantes à fleurs de la famille des Bromeliaceae qui se rencontre au Brésil et au Paraguay. L'épithète arhiza signifie « sans racines ».
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia arhiza Mez in C.DC., Monogr. Phan. 9: 855, n° 219 (1896)
-Diagnose originale[1]
+Diagnose originale
 « foliis caulem perlongum vaginis tubulosis, quam maxime elongatis involventibus, dense lepidibus magnis obtectis ; inflorescentia paupere panniculata[sic] ; spicis subflabellatis ; bracteolis florigeris inferioribus saltem sepala aequantibus v.paullo superantibus ; floribus stricte erectis ; sepalis antico cum reliquis vix ad 1 mm., posticis inter sese duplo altius connatis ; petalis violaceis. »
 Type
-leg. Balansa, n° 4747 ; « Paraguay, in saxis graniticis cacuminis montis Cerro d'Acahy prope Paranaguari » ; Holotypus Herb. Boiss.-Barbey., Paris[1].
+leg. Balansa, n° 4747 ; « Paraguay, in saxis graniticis cacuminis montis Cerro d'Acahy prope Paranaguari » ; Holotypus Herb. Boiss.-Barbey., Paris.
 leg. Balansa, n° 4747 ; « Paraguay, Paraguarin Cerro d'Acahy » ; Isotypus B (B 10 0247098)</t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie taxonomique
-Tillandsia rupestris var. pendens Chodat &amp; Vischer[2]</t>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia rupestris var. pendens Chodat &amp; Vischer</t>
         </is>
       </c>
     </row>
@@ -579,10 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre au Brésil[2] et au Paraguay[1],[2].
-Habitat
-L'espèce croit sur les rochers granitiques[1].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre au Brésil et au Paraguay,.
 </t>
         </is>
       </c>
@@ -608,12 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Distribution et habitat</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia arhiza est une plante herbacée vivace, rameuse et saxicole[1],[2].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce croit sur les rochers granitiques.
 </t>
         </is>
       </c>
@@ -639,15 +667,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia arhiza est une plante herbacée vivace, rameuse et saxicole,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_arhiza</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_arhiza</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia arhiza var. arhiza
-(autonyme)
-Tillandsia arhiza var. rupestris (Mez) Hassl.
-Tillandsia arhiza var. rupestris (Mez) Hassl., in Annuaire Conserv. Jard. Bot. Genève 20: 331 (1919), synonyme du basionyme ] Tillandsia rupestris Mez.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tillandsia arhiza var. arhiza</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_arhiza</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_arhiza</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tillandsia arhiza var. rupestris (Mez) Hassl.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia arhiza var. rupestris (Mez) Hassl., in Annuaire Conserv. Jard. Bot. Genève 20: 331 (1919), synonyme du basionyme ] Tillandsia rupestris Mez.
 </t>
         </is>
       </c>
